--- a/biology/Histoire de la zoologie et de la botanique/Paul_S._Martin/Paul_S._Martin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_S._Martin/Paul_S._Martin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul S. Martin (né à Allentown, en Pennsylvanie, en 1928 et mort à Tucson, en Arizona, le 13 septembre 2010[1]) est un spécialiste des géosciences à l'université d'Arizona. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul S. Martin (né à Allentown, en Pennsylvanie, en 1928 et mort à Tucson, en Arizona, le 13 septembre 2010) est un spécialiste des géosciences à l'université d'Arizona. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est notamment connu pour avoir développé la théorie de l'extinction de la mégafaune (grands mammifères, oiseaux géants et crocodiles géants..)  dans le monde entier au Pléistocène, à la suite de la chasse à outrance par les humains préhistoriques. 
 Le travail de Martin a réuni les domaines de l'écologie, de l'anthropologie, des sciences de la Terre et de la paléontologie.
